--- a/CASUAL/LA ONT/FERMA, ETHEL GRACE.xlsx
+++ b/CASUAL/LA ONT/FERMA, ETHEL GRACE.xlsx
@@ -925,7 +925,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,7 +1032,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,7 +1092,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1158,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1747,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1813,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1871,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1937,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1993,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2233,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,9 +2679,9 @@
   <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2846,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.75</v>
+        <v>32</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2856,7 +2856,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.75</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3812,15 +3812,17 @@
       <c r="B56" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="38">
         <v>3</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="9"/>

--- a/CASUAL/LA ONT/FERMA, ETHEL GRACE.xlsx
+++ b/CASUAL/LA ONT/FERMA, ETHEL GRACE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>12/13-15/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-42)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
   </si>
 </sst>
 </file>
@@ -925,7 +934,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +977,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,7 +1041,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,7 +1101,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1167,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1230,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1328,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1387,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1452,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1495,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1570,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1756,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1822,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1880,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1946,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2002,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2077,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2120,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2186,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2242,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2338,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K103" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K104" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2676,12 +2685,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2855,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32</v>
+        <v>30.795999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3409,11 +3418,15 @@
       <c r="A37" s="39">
         <v>44834</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="38">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -3494,37 +3507,43 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>44926</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="38"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="38">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="39">
+        <v>44926</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="38">
+        <v>1</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="38"/>
       <c r="I42" s="9"/>
@@ -3532,19 +3551,17 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>44957</v>
+      <c r="A43" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="38"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="9"/>
@@ -3553,7 +3570,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3573,7 +3590,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3593,7 +3610,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3613,7 +3630,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3633,7 +3650,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3653,7 +3670,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -3673,7 +3690,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3693,7 +3710,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -3713,17 +3730,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
-        <v>45230</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>45199</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="38">
-        <v>3</v>
-      </c>
+      <c r="D52" s="38"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -3733,131 +3746,133 @@
       <c r="H52" s="38"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="39">
+        <v>45230</v>
+      </c>
       <c r="B53" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="38">
+        <v>3</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="38">
-        <v>7</v>
-      </c>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="38"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
-        <v>45260</v>
-      </c>
+      <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="38">
-        <v>2</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="38"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="38">
+        <v>7</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="39">
+        <v>45260</v>
+      </c>
       <c r="B55" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="38">
+        <v>2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="48">
-        <v>45247</v>
+      <c r="K55" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
-        <v>45291</v>
-      </c>
+      <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="38">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20" t="s">
-        <v>62</v>
+      <c r="K56" s="48">
+        <v>45247</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="39">
+        <v>45291</v>
+      </c>
       <c r="B57" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="38">
+        <v>3</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H57" s="38">
-        <v>3</v>
-      </c>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="38"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="20"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="38"/>
       <c r="E58" s="9"/>
@@ -3866,14 +3881,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="38"/>
+      <c r="H58" s="38">
+        <v>3</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
-        <v>45322</v>
+      <c r="A59" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3891,7 +3910,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3908,7 +3927,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="39">
+        <v>45351</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="38"/>
@@ -4580,20 +4601,36 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="41" t="str">
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="42"/>
+      <c r="H103" s="38"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="15"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="42"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4641,7 +4678,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,10 +4742,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>56</v>
+      </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">
